--- a/Person/张静静/用户故事.xlsx
+++ b/Person/张静静/用户故事.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dasanshang\软件工程\仓库作业\Repository\project\scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dasanshang\软件工程\仓库作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E6E8FC-64FA-401B-9432-900D4A6E25C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF5BBF-7F4C-47CD-B69B-0DB1F04F2904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>引用编号</t>
   </si>
@@ -62,81 +62,13 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>提供食物卡路里</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供食物信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>食物图片识别</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>食物卡路里摄入量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别食物卡路里</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别食物搭配</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>识别食物热量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>故事</t>
   </si>
   <si>
-    <t>作为一名患有三高的人士，我希望能够检测出饭菜的热量和具体成分，以便于管理自己的身体健康。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名对美食感兴趣的人士，我希望能够了解关于饭菜的详细信息，以便于迅速掌握更多的美食信息。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名对饮食有追求的人士，我希望能够学习到关于饮食的知识，以便于让自己吃的更健康合理。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名体重偏低的人士，我希望能够知道饮食的卡路里信息，以便于让自己的身体充满能量，早日让体重回归正常水平。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名营养师，我希望可以为顾客提供便捷的渠道、让他们能够知道关于饮食的卡路里信息，以便于给予我的顾客更丰富的营养知识。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名对食物图片识别感兴趣的学生，我希望可以看到食物图片识别成功，以便于我拥有可以学习食物图片识别技术的样例。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名对生活有追求的青年，我对我每天的卡路里摄入量很感兴趣，我希望能够知道关于饮食的卡路里信息，以便于让自己的饮食生活更加精彩。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名医生，我希望这个软件能够真正做到识别食物卡路里来帮助到我有这方面困扰的病人，以便于协助我的病人控制热量、使其早日康复。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名厨师，我希望可以知道自己准备的菜搭配是否合理以及菜的总卡路里是多少，以便于用真实的健康的口号吸引到更多的顾客。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名热爱健身的人士，我希望能够充分了解到每种食物的热量，以便于早日实现我的增肌目标。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一名体重偏高的人士，我希望能够检测到每顿饭菜的热量，以便于管理自己的身材。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>优先级</t>
   </si>
   <si>
@@ -155,6 +87,64 @@
   <si>
     <t>初始估计（h）</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算卡路里摄入量</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传拍照图片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件图片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望可以看到食物图片识别成功，以便于我顺利得到饭菜的热量和成分。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物推荐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望识别热量与成分后我可以评价这次识别并提出意见，以便于让这项功能更加完善、提高我之后的用户体验。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够检测到每顿饭菜的热量，以便于管理自己的身材。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够检测出饭菜的具体成分，以便于管理自己的身体健康。</t>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够了解关于饭菜的详细信息，以便于迅速掌握更多的美食信息。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够学习到关于饮食的知识，以便于让自己吃的更健康合理。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望看到一些关于健康食物的推荐，以便于提高我的饮食生活质量。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够知道我每天的卡路里摄入量，以便于合理安排今后的饮食生活。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够上传现场拍照得到的图片来进行检测，以便于更便捷地进行食物图片热量检测。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名用户，我希望能够上传本地已存在的图片来进行检测，以便于更便捷地进行食物图片热量检测。</t>
   </si>
 </sst>
 </file>
@@ -162,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="187" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -350,19 +340,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="5">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="5">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="3" fillId="6" borderId="5" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="5" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -754,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,7 +757,7 @@
     <col min="3" max="3" width="4.875" customWidth="1"/>
     <col min="4" max="4" width="9.625" customWidth="1"/>
     <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="75.375" customWidth="1"/>
+    <col min="6" max="6" width="79.75" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="9" max="9" width="8.125" customWidth="1"/>
@@ -791,19 +781,19 @@
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -820,25 +810,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I2" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J2" s="8">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -852,25 +842,25 @@
         <v>4</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I3" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J3" s="8">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -884,25 +874,25 @@
         <v>4</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I4" s="8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J4" s="8">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -916,25 +906,25 @@
         <v>4</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>10</v>
       </c>
       <c r="J5" s="8">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -948,25 +938,25 @@
         <v>4</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J6" s="8">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -980,25 +970,25 @@
         <v>4</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J7" s="8">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1012,25 +1002,25 @@
         <v>4</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8" s="8">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1044,25 +1034,25 @@
         <v>4</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J9" s="8">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1076,22 +1066,22 @@
         <v>4</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J10" s="8">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -1108,58 +1098,27 @@
         <v>4</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J11" s="8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="8">
-        <v>18</v>
-      </c>
-      <c r="J12" s="8">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>